--- a/biology/Botanique/Square_Françoise-Hélène-Jourda/Square_Françoise-Hélène-Jourda.xlsx
+++ b/biology/Botanique/Square_Françoise-Hélène-Jourda/Square_Françoise-Hélène-Jourda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Fran%C3%A7oise-H%C3%A9l%C3%A8ne-Jourda</t>
+          <t>Square_Françoise-Hélène-Jourda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square Françoise-Hélène-Jourda  est un espace vert du 18e arrondissement de Paris, en France[1].
+Le square Françoise-Hélène-Jourda  est un espace vert du 18e arrondissement de Paris, en France.
 Localisation du square Françoise-Hélène-Jourda.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Fran%C3%A7oise-H%C3%A9l%C3%A8ne-Jourda</t>
+          <t>Square_Françoise-Hélène-Jourda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé 20 rue du Département.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Fran%C3%A7oise-H%C3%A9l%C3%A8ne-Jourda</t>
+          <t>Square_Françoise-Hélène-Jourda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de l'architecte Françoise-Hélène Jourda[2], à proximité de la ZAC Pajol, qu'elle a conçue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de l'architecte Françoise-Hélène Jourda, à proximité de la ZAC Pajol, qu'elle a conçue.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Fran%C3%A7oise-H%C3%A9l%C3%A8ne-Jourda</t>
+          <t>Square_Françoise-Hélène-Jourda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réaménagé en 2015 dand la Zac Pajol, l'ancien square nommé « square du 20, rue du Département » est renommé « square Françoise-Hélène-Jourda » par le Conseil de Paris réuni le juillet 2016[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réaménagé en 2015 dand la Zac Pajol, l'ancien square nommé « square du 20, rue du Département » est renommé « square Françoise-Hélène-Jourda » par le Conseil de Paris réuni le juillet 2016.
 </t>
         </is>
       </c>
